--- a/2015-2016/clases/computacion_aplicada_2/evaluacion2.xlsx
+++ b/2015-2016/clases/computacion_aplicada_2/evaluacion2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pruebas_parciales" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,7 +491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,19 +706,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="42.140625"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" ht="15.75">
+    <row r="4" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="4:8" ht="15.75">
+    <row r="5" spans="4:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="13" t="s">
         <v>0</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="4:8">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -758,7 +758,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="8" spans="4:8">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>7</v>
       </c>
@@ -815,7 +815,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -853,7 +853,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="4:8">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -869,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="4:8">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>11</v>
       </c>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="4:8">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:8">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>13</v>
       </c>
@@ -926,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="4:8">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>14</v>
       </c>
@@ -942,7 +942,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="18" spans="4:8">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="19" spans="4:8">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>16</v>
       </c>
@@ -980,7 +980,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="20" spans="4:8">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>17</v>
       </c>
@@ -999,7 +999,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="21" spans="4:8">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="4:8">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>19</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="4:8">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="4:8">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>21</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:8">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:8">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>4.55</v>
       </c>
     </row>
-    <row r="27" spans="4:8">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="28" spans="4:8">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>25</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:8">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>26</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="30" spans="4:8">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>27</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="4:8">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>28</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="32" spans="4:8">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>29</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="33" spans="4:8">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>31</v>
       </c>
@@ -1267,25 +1267,25 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.5703125"/>
     <col min="4" max="4" width="42.140625"/>
     <col min="5" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:5">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:5" ht="15.75">
+    <row r="4" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="4:5">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="4:5">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:5">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>23</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>25</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>26</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="4:5">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="4:5">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>29</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="4:5">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>30</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -1534,25 +1534,25 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.5703125"/>
     <col min="4" max="4" width="42.140625"/>
     <col min="5" max="1023" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:6">
+    <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:6" ht="15.75">
+    <row r="4" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="4:6">
+    <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="4:6">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="7" spans="4:6">
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="8" spans="4:6">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="9" spans="4:6">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="10" spans="4:6">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:6">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:6">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="14" spans="4:6">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="15" spans="4:6">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="16" spans="4:6">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>14</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>23</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>25</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>26</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>13.95</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>29</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>30</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>13.05</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -1916,7 +1916,7 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="42.140625"/>
     <col min="4" max="4" width="7.5703125"/>
@@ -1933,7 +1933,7 @@
     <col min="16" max="16" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16" ht="15" customHeight="1">
+    <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1947,7 @@
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="2:16" ht="43.5" customHeight="1">
+    <row r="5" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>36</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="23.25">
+    <row r="6" spans="2:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>10.90909090909091</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>13.363636363636363</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>8.1818181818181817</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>10.90909090909091</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>13.363636363636363</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>10.90909090909091</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>9.545454545454545</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>14.727272727272728</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>12</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>13</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>7.9090909090909092</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>14</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>14.454545454545457</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>15</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>14.727272727272728</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>14.454545454545457</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>14.727272727272728</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>18</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>19</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>14.454545454545457</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>20</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>9.2727272727272716</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>21</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>22</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>13.90909090909091</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>23</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>24</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>13.09090909090909</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>25</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>14.727272727272728</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>26</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>13.09090909090909</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>27</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>14.727272727272728</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>28</v>
       </c>
@@ -3414,11 +3414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:P32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.5703125"/>
     <col min="4" max="4" width="42.140625"/>
@@ -3433,7 +3433,7 @@
     <col min="16" max="1027" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16">
+    <row r="2" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>20</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="4:16">
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>2</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="4:16">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="4:16">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:16">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:16">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="4:16">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:16">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:16">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:16">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:16">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:16">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:16">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:16">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:16">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:16">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:16">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:16">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>21</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:16">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>22</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:16">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>23</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:16">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:16">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>25</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:16">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>26</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:16">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>28</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:16">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:16">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>30</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:16">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>31</v>
       </c>
@@ -4051,7 +4051,7 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="10.5703125"/>
     <col min="4" max="4" width="42.140625"/>
@@ -4061,7 +4061,7 @@
     <col min="15" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:14" ht="15.75">
+    <row r="4" spans="4:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
+    <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="4:14">
+    <row r="6" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:14">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>14</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="4:14">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="4:14">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>16</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:14">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="4:14">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="4:14">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="4:14">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="4:14">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="24" spans="4:14">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>22</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="4:14">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>23</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="26" spans="4:14">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>24</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="4:14">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>25</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="28" spans="4:14">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>26</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="29" spans="4:14">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>27</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="4:14">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>28</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="4:14">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>29</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="32" spans="4:14">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>30</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="33" spans="4:14">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>31</v>
       </c>
@@ -5151,11 +5151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125"/>
     <col min="2" max="2" width="46.85546875"/>
@@ -5167,7 +5167,7 @@
     <col min="8" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C1">
         <v>15</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="45">
+    <row r="2" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>54.609090909090909</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>52.913636363636364</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>68.631818181818176</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>61.536363636363632</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>40.409090909090907</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>57.763636363636365</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>41.409090909090907</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>52.800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>46.49545454545455</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>62.277272727272731</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>56.936363636363637</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>60.359090909090909</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>56.654545454545456</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>44.527272727272731</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>60.904545454545456</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>70.927272727272722</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>61.45</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>50.154545454545456</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>51.972727272727269</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>56.786363636363639</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>61.109090909090909</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>58.150000000000006</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>59.690909090909088</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>57.427272727272722</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>56.940909090909088</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>55.577272727272728</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>31</v>
       </c>
